--- a/time/Agilosoft Timesheets - Multi Project.xlsx
+++ b/time/Agilosoft Timesheets - Multi Project.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Day Type</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Actual time spent on the tasks in days. One working day has 8 hours. So if you spent the whole day effort is 1. If you spent half a day effort is 0.5</t>
+  </si>
+  <si>
+    <t>Study SVN</t>
   </si>
 </sst>
 </file>
@@ -852,7 +855,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -866,7 +869,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2735,7 +2738,9 @@
         <v>WORKING</v>
       </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>

--- a/time/Agilosoft Timesheets - Multi Project.xlsx
+++ b/time/Agilosoft Timesheets - Multi Project.xlsx
@@ -73,7 +73,7 @@
     <t>Actual time spent on the tasks in days. One working day has 8 hours. So if you spent the whole day effort is 1. If you spent half a day effort is 0.5</t>
   </si>
   <si>
-    <t>Study SVN</t>
+    <t>detailes study of svn</t>
   </si>
 </sst>
 </file>
@@ -855,7 +855,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/time/Agilosoft Timesheets - Multi Project.xlsx
+++ b/time/Agilosoft Timesheets - Multi Project.xlsx
@@ -73,7 +73,7 @@
     <t>Actual time spent on the tasks in days. One working day has 8 hours. So if you spent the whole day effort is 1. If you spent half a day effort is 0.5</t>
   </si>
   <si>
-    <t>detailes study of svn</t>
+    <t>detailed study of svn</t>
   </si>
 </sst>
 </file>
@@ -855,7 +855,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/time/Agilosoft Timesheets - Multi Project.xlsx
+++ b/time/Agilosoft Timesheets - Multi Project.xlsx
@@ -73,7 +73,7 @@
     <t>Actual time spent on the tasks in days. One working day has 8 hours. So if you spent the whole day effort is 1. If you spent half a day effort is 0.5</t>
   </si>
   <si>
-    <t>detailes study of svn</t>
+    <t>Study Of SVN</t>
   </si>
 </sst>
 </file>
@@ -855,7 +855,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
